--- a/regionseng/3/business sector/by size.xlsx
+++ b/regionseng/3/business sector/by size.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A707A46-CA78-48C4-A6A9-48668505515E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-105" yWindow="150" windowWidth="14790" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,9 +50,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -145,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -169,10 +170,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -180,6 +181,9 @@
     </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -274,6 +278,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -309,6 +330,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,10 +522,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -496,7 +536,7 @@
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,13 +545,13 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -520,14 +560,14 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" s="4"/>
       <c r="B5" s="5">
         <v>2006</v>
@@ -571,8 +611,17 @@
       <c r="O5" s="7">
         <v>2019</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5" s="7">
+        <v>2020</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -618,9 +667,17 @@
       <c r="O6" s="11">
         <v>558.70000000000005</v>
       </c>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6" s="11">
+        <v>542.6</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>637.4</v>
+      </c>
+      <c r="R6" s="11">
+        <v>710.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -666,8 +723,17 @@
       <c r="O7" s="12">
         <v>109.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7" s="12">
+        <v>43.9</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="R7" s="12">
+        <v>169.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -713,8 +779,17 @@
       <c r="O8" s="12">
         <v>91.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8" s="12">
+        <v>173.8</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>138.6</v>
+      </c>
+      <c r="R8" s="12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -760,8 +835,17 @@
       <c r="O9" s="12">
         <v>357.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9" s="12">
+        <v>324.89999999999998</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>365</v>
+      </c>
+      <c r="R9" s="12">
+        <v>427.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -776,8 +860,10 @@
       <c r="M10" s="8"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -795,8 +881,10 @@
       <c r="M11" s="8"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -810,8 +898,10 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="4"/>
       <c r="B13" s="5">
         <v>2006</v>
@@ -855,8 +945,17 @@
       <c r="O13" s="7">
         <v>2019</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13" s="7">
+        <v>2020</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -902,8 +1001,17 @@
       <c r="O14" s="11">
         <v>388.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="P14" s="11">
+        <v>405</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>508.6</v>
+      </c>
+      <c r="R14" s="11">
+        <v>565.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -949,8 +1057,17 @@
       <c r="O15" s="12">
         <v>108.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="P15" s="12">
+        <v>43.3</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>134.1</v>
+      </c>
+      <c r="R15" s="12">
+        <v>168.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -996,8 +1113,17 @@
       <c r="O16" s="12">
         <v>89.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="12">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>130.9</v>
+      </c>
+      <c r="R16" s="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1043,8 +1169,17 @@
       <c r="O17" s="12">
         <v>191.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="12">
+        <v>198.9</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>243.6</v>
+      </c>
+      <c r="R17" s="12">
+        <v>299.60000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1059,8 +1194,10 @@
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1078,8 +1215,10 @@
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1094,8 +1233,10 @@
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="4"/>
       <c r="B21" s="5">
         <v>2006</v>
@@ -1139,8 +1280,17 @@
       <c r="O21" s="7">
         <v>2019</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="7">
+        <v>2020</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1186,8 +1336,17 @@
       <c r="O22" s="13">
         <v>9674</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="13">
+        <v>8121.6</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>8667</v>
+      </c>
+      <c r="R22" s="15">
+        <v>9099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -1233,8 +1392,17 @@
       <c r="O23" s="14">
         <v>998</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="14">
+        <v>1025</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>940</v>
+      </c>
+      <c r="R23" s="14">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -1280,8 +1448,17 @@
       <c r="O24" s="14">
         <v>1468</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="14">
+        <v>1436</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>1617</v>
+      </c>
+      <c r="R24" s="14">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -1327,8 +1504,17 @@
       <c r="O25" s="14">
         <v>7208</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="14">
+        <v>5660.6</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>6110</v>
+      </c>
+      <c r="R25" s="14">
+        <v>6593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1343,8 +1529,10 @@
       <c r="M26" s="8"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -1362,8 +1550,10 @@
       <c r="M27" s="8"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1378,8 +1568,10 @@
       <c r="M28" s="8"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="4"/>
       <c r="B29" s="5">
         <v>2006</v>
@@ -1423,8 +1615,17 @@
       <c r="O29" s="7">
         <v>2019</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="7">
+        <v>2020</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1470,8 +1671,17 @@
       <c r="O30" s="11">
         <v>672.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="11">
+        <v>708.1</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>763.4</v>
+      </c>
+      <c r="R30" s="11">
+        <v>951.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -1517,8 +1727,17 @@
       <c r="O31" s="12">
         <v>1560.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="12">
+        <v>983.3</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>1565</v>
+      </c>
+      <c r="R31" s="12">
+        <v>1433.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
@@ -1564,8 +1783,17 @@
       <c r="O32" s="12">
         <v>947.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32" s="12">
+        <v>1194.0999999999999</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>981.9</v>
+      </c>
+      <c r="R32" s="12">
+        <v>1205.5999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
@@ -1611,8 +1839,17 @@
       <c r="O33" s="12">
         <v>421.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P33" s="12">
+        <v>453.7</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>475.5</v>
+      </c>
+      <c r="R33" s="12">
+        <v>738.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
